--- a/table/Tables.xlsx
+++ b/table/Tables.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annabethlu/R_Projects/ded-dep-ibs/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8253CD2-3D09-5043-9694-97FDBDE1A561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E630F9-1C52-AF40-8F37-914EACD26055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="740" windowWidth="28500" windowHeight="18380" activeTab="1" xr2:uid="{D515C405-0CB0-4046-88E1-6357459E1EB7}"/>
+    <workbookView xWindow="920" yWindow="740" windowWidth="28480" windowHeight="18380" activeTab="3" xr2:uid="{D515C405-0CB0-4046-88E1-6357459E1EB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of content" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="3" r:id="rId2"/>
     <sheet name="2" sheetId="24" r:id="rId3"/>
+    <sheet name="大專生" sheetId="25" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="226">
   <si>
     <t>T1</t>
   </si>
@@ -89,9 +90,6 @@
   </si>
   <si>
     <t>One-sample</t>
-  </si>
-  <si>
-    <t>Two-Sample</t>
   </si>
   <si>
     <t>Scalable and Accurate Implementation of Generalized Mixed Model (SAIGE)</t>
@@ -792,6 +790,15 @@
   <si>
     <t>Depression</t>
   </si>
+  <si>
+    <t>Two-sample</t>
+  </si>
+  <si>
+    <t>Two-Sample</t>
+  </si>
+  <si>
+    <t>Inverse-variance weighted (IVW)-Mendelian Randomization (MR)</t>
+  </si>
 </sst>
 </file>
 
@@ -801,7 +808,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -877,6 +884,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -886,7 +899,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -989,6 +1002,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -996,7 +1040,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1076,80 +1120,89 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1505,12 +1558,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1525,10 +1578,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90501A7-715E-F04D-8391-BB22BC15A0D4}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1545,347 +1598,345 @@
     <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-    </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+    <row r="1" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="43" t="s">
+      <c r="E3" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="F3" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="G3" s="43" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="B8" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="40" t="s">
+      <c r="C16" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="51"/>
-    </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="F16" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="43" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="E9" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1974,15 +2025,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1994,8 +2045,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView zoomScale="65" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2018,7 +2069,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -2034,134 +2085,134 @@
       <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="36" t="s">
+      <c r="A2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="49"/>
+      <c r="G2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31" t="s">
+      <c r="H2" s="40"/>
+      <c r="I2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="36" t="s">
+      <c r="J2" s="49"/>
+      <c r="K2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="31"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
       <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="43" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="8">
         <v>0.318613668993319</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="18">
         <v>0.563800400247494</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5" s="8">
         <v>0.33974967916048898</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" s="16">
         <v>8.8589736230517496E-2</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L5" s="8">
         <v>0.54515296300000005</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N5" s="8">
         <v>0.38106893052840601</v>
@@ -2169,42 +2220,42 @@
       <c r="O5" s="26"/>
     </row>
     <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="8">
         <v>1.2260426980827E-4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="16">
         <v>6.0331245184051502E-2</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H6" s="8">
         <v>7.6109738862098304E-3</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J6" s="16">
         <v>2.29773775382251E-2</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L6" s="8">
         <v>6.1079100999999997E-2</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N6" s="8">
         <v>1.15793313475917E-2</v>
@@ -2212,85 +2263,85 @@
       <c r="O6" s="26"/>
     </row>
     <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F7" s="16">
         <v>6.44450341855569E-4</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H7" s="8">
         <v>1.6163995229760201E-4</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="16">
         <v>2.43339769734111E-4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L7" s="8">
         <v>5.4625500000000005E-4</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O7" s="26"/>
     </row>
     <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="8">
         <v>2.8374131954616501E-2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F8" s="16">
         <v>0.30936586596794902</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H8" s="8">
         <v>0.30849154091916098</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J8" s="16">
         <v>0.23516877900637001</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L8" s="8">
         <v>0.31031989500000001</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N8" s="8">
         <v>0.42471750538549602</v>
@@ -2298,42 +2349,42 @@
       <c r="O8" s="26"/>
     </row>
     <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="8">
         <v>1.98044371834111E-2</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="16">
         <v>0.297568724568674</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="8">
         <v>0.34083077806289502</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J9" s="16">
         <v>0.21988407366716101</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L9" s="8">
         <v>0.31672435599999998</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N9" s="8">
         <v>0.39740315206358801</v>
@@ -2341,44 +2392,44 @@
       <c r="O9" s="26"/>
     </row>
     <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>17</v>
+      <c r="A10" s="41" t="s">
+        <v>223</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="8">
         <v>0.57554022744008204</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="16">
         <v>7.7456260389439494E-2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10" s="8">
         <v>0.94393948486502099</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J10" s="16">
         <v>0.19032149238367299</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L10" s="8">
         <v>0.12785369585291101</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N10" s="8">
         <v>5.8407805811169999E-2</v>
@@ -2386,42 +2437,42 @@
       <c r="O10" s="26"/>
     </row>
     <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="8">
         <v>6.0660665212723397E-3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F11" s="16">
         <v>1.88100694780679E-3</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H11" s="8">
         <v>1.1372826337850099E-2</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="16">
         <v>1.55384932789915E-3</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" s="8">
         <v>4.9244461720052103E-3</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N11" s="8">
         <v>7.9525598884296906E-3</v>
@@ -2429,42 +2480,42 @@
       <c r="O11" s="26"/>
     </row>
     <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="8">
         <v>2.61976585336442E-4</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H12" s="8">
         <v>1.6908049127397099E-4</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="8">
-        <v>3.1570534458732599E-5</v>
+        <v>79</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N12" s="8">
         <v>5.3799840360692598E-5</v>
@@ -2472,42 +2523,42 @@
       <c r="O12" s="26"/>
     </row>
     <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="8">
         <v>9.7097307523947907E-2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="16">
         <v>0.36222819189239602</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H13" s="8">
         <v>0.111434614062212</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J13" s="16">
         <v>0.23376542792816499</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L13" s="8">
         <v>0.18608225356026301</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N13" s="8">
         <v>0.167336762598818</v>
@@ -2515,42 +2566,42 @@
       <c r="O13" s="26"/>
     </row>
     <row r="14" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8">
         <v>8.4527383122379701E-2</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="17">
         <v>0.39411051219694199</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H14" s="8">
         <v>9.9242076882712402E-2</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="16">
         <v>0.29703930374565501</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L14" s="8">
         <v>0.11589693383140499</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N14" s="8">
         <v>0.159973818673354</v>
@@ -2558,63 +2609,63 @@
       <c r="O14" s="26"/>
     </row>
     <row r="15" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
       <c r="O15" s="26"/>
     </row>
     <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="43" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="8">
         <v>0.30148180504386801</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="18">
         <v>0.31784416489694101</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H16" s="8">
         <v>0.63191332590537796</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J16" s="18">
         <v>9.65543711720903E-2</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L16" s="8">
         <v>0.54515973917622196</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N16" s="8">
         <v>0.37890405517586201</v>
@@ -2622,42 +2673,42 @@
       <c r="O16" s="26"/>
     </row>
     <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="8">
         <v>9.6995879378496794E-5</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="16">
         <v>1.8787607733506399E-2</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H17" s="8">
         <v>9.1009286577973195E-3</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J17" s="16">
         <v>1.9634629278711201E-2</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L17" s="8">
         <v>5.4135696876624E-2</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N17" s="8">
         <v>1.3166532350849299E-2</v>
@@ -2665,85 +2716,85 @@
       <c r="O17" s="26"/>
     </row>
     <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="16">
         <v>2.6320121289647499E-4</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J18" s="16">
         <v>1.8506083550352901E-4</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L18" s="8">
         <v>5.4678864152213802E-4</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O18" s="26"/>
     </row>
     <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="8">
         <v>2.0163240528978301E-2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" s="16">
         <v>0.28528614864112201</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H19" s="8">
         <v>0.23507685055865199</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J19" s="16">
         <v>0.156275132214447</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L19" s="8">
         <v>0.35710569477605503</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N19" s="8">
         <v>0.39340512922514598</v>
@@ -2751,42 +2802,42 @@
       <c r="O19" s="26"/>
     </row>
     <row r="20" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="8">
         <v>2.9691241623267198E-2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="16">
         <v>0.31587379236272001</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H20" s="8">
         <v>0.21594874795685301</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J20" s="16">
         <v>0.182634409002353</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L20" s="8">
         <v>0.30861000631758201</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N20" s="8">
         <v>0.35337022863699302</v>
@@ -2794,44 +2845,44 @@
       <c r="O20" s="26"/>
     </row>
     <row r="21" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
-        <v>17</v>
+      <c r="A21" s="41" t="s">
+        <v>223</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="8">
         <v>0.60109480386068004</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="16">
         <v>7.8238020996597296E-2</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H21" s="8">
         <v>0.94379989851408896</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J21" s="16">
         <v>0.190322298364068</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L21" s="8">
         <v>0.13728814288327501</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N21" s="8">
         <v>0.11913339381211201</v>
@@ -2839,42 +2890,42 @@
       <c r="O21" s="26"/>
     </row>
     <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="8">
         <v>7.9964726073686009E-3</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F22" s="16">
         <v>1.7447103660441601E-3</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H22" s="8">
         <v>1.23369773579604E-2</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J22" s="16">
         <v>1.66950472349818E-3</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L22" s="8">
         <v>4.9103680328189403E-3</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N22" s="8">
         <v>1.1056362777466E-2</v>
@@ -2882,42 +2933,42 @@
       <c r="O22" s="26"/>
     </row>
     <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D23" s="8">
         <v>2.7381435832715098E-4</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H23" s="8">
         <v>1.6937351737524901E-4</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="L23" s="8">
-        <v>3.1273317362650703E-5</v>
+        <v>158</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N23" s="8">
         <v>5.8679478272561096E-4</v>
@@ -2925,526 +2976,526 @@
       <c r="O23" s="26"/>
     </row>
     <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="8">
         <v>4.5309233424289698E-2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="16">
         <v>0.37579672963191202</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H24" s="8">
         <v>0.103301391489376</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J24" s="16">
         <v>0.263118893385894</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L24" s="8">
         <v>0.18357521424303799</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N24" s="8">
         <v>0.102270857663914</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" s="8">
         <v>6.2872332199554196E-2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="17">
         <v>0.401780121940359</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H25" s="8">
         <v>9.1622276134029207E-2</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J25" s="17">
         <v>0.308628152382807</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L25" s="8">
         <v>0.37237681627696401</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N25" s="8">
         <v>9.9620575405391196E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
+      <c r="A26" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
     </row>
     <row r="27" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="43" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H27" s="8">
         <v>0.95130942229704296</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" s="18">
         <v>8.8589736230517496E-2</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L27" s="8">
         <v>0.701257964188574</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N27" s="8">
         <v>0.38106893052840601</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="8">
         <v>4.7393322920076399E-2</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J28" s="16">
         <v>2.7683170835430902E-2</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L28" s="8">
         <v>3.8686310298523499E-2</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N28" s="8">
         <v>1.44882589075758E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H29" s="8">
         <v>1.7830546134309201E-4</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J29" s="16">
         <v>2.43339769734111E-4</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L29" s="8">
         <v>5.5545544292901297E-4</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="N29" s="8">
-        <v>4.9402187364177896E-7</v>
+        <v>94</v>
+      </c>
+      <c r="N29" s="34" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H30" s="8">
         <v>0.23608954843695101</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J30" s="16">
         <v>0.22047293491591599</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L30" s="8">
         <v>0.18343382884173301</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N30" s="8">
         <v>0.35601381888108602</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="8">
         <v>0.20341900346097599</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J31" s="16">
         <v>0.248733527608966</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L31" s="8">
         <v>0.188518911265526</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N31" s="8">
         <v>0.40157310797477302</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
-        <v>17</v>
+      <c r="A32" s="41" t="s">
+        <v>223</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H32" s="8">
         <v>0.36900759066911398</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J32" s="16">
         <v>0.19032149238367299</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L32" s="8">
         <v>0.12703138005217801</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N32" s="8">
         <v>5.8407805811169999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H33" s="8">
         <v>1.4743504993499201E-2</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J33" s="16">
         <v>1.4619212769827099E-3</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L33" s="8">
         <v>6.08413962444577E-3</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N33" s="8">
         <v>7.6306339845722496E-3</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H34" s="8">
         <v>1.99729618019719E-4</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="L34" s="8">
-        <v>1.4003144233495101E-7</v>
+        <v>86</v>
+      </c>
+      <c r="L34" s="34" t="s">
+        <v>137</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N34" s="8">
         <v>5.3799840360692598E-5</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H35" s="8">
         <v>0.25909798397546302</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J35" s="16">
         <v>0.25266037824438398</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L35" s="8">
         <v>0.39052694862718701</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N35" s="8">
         <v>0.18536224528602299</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H36" s="14">
         <v>0.21298294603339599</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J36" s="17">
         <v>0.38015583257087499</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L36" s="14">
         <v>0.39283048768007101</v>
       </c>
       <c r="M36" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N36" s="14">
         <v>0.17157671655635501</v>
@@ -3986,6 +4037,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A26:N26"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A4:N4"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A21:A25"/>
@@ -3997,11 +4053,973 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A26:N26"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A4:N4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D036A6-B54F-5145-AD3C-38102BBA3DFE}">
+  <dimension ref="A1:N109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="3"/>
+    <col min="10" max="10" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="3"/>
+    <col min="12" max="12" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="49"/>
+      <c r="J2" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="40"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="26"/>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="26"/>
+    </row>
+    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="16">
+        <v>6.44450341855569E-4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1.6163995229760201E-4</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="16">
+        <v>2.43339769734111E-4</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="8">
+        <v>5.4625500000000005E-4</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N5" s="26"/>
+    </row>
+    <row r="6" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2.61976585336442E-4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1.6908049127397099E-4</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="8">
+        <v>5.3799840360692598E-5</v>
+      </c>
+      <c r="N6" s="26"/>
+    </row>
+    <row r="7" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="26"/>
+    </row>
+    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="16">
+        <v>2.6320121289647499E-4</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="16">
+        <v>1.8506083550352901E-4</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="8">
+        <v>5.4678864152213802E-4</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N8" s="26"/>
+    </row>
+    <row r="9" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2.7381435832715098E-4</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1.6937351737524901E-4</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M9" s="8">
+        <v>5.8679478272561096E-4</v>
+      </c>
+      <c r="N9" s="26"/>
+    </row>
+    <row r="10" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+    </row>
+    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1.7830546134309201E-4</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="16">
+        <v>2.43339769734111E-4</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="8">
+        <v>5.5545544292901297E-4</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1.99729618019719E-4</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" s="8">
+        <v>5.3799840360692598E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="5"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="5"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="23" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="5"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="5"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="5"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="5"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="5"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="5"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="5"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="5"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="5"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="5"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="34" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="5"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="5"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="5"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="5"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="5"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="5"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="5"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="5"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="5"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="5"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="45" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="5"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="5"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="5"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="5"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="5"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="5"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="5"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="5"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E53" s="5"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="5"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="56" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E56" s="5"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="5"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E58" s="5"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E59" s="5"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E60" s="5"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E61" s="5"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E62" s="5"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E63" s="5"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E64" s="5"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E65" s="5"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="67" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E67" s="5"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E68" s="5"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E69" s="5"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E70" s="5"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E71" s="5"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E72" s="5"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E73" s="5"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E74" s="5"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E75" s="5"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E76" s="5"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+    </row>
+    <row r="78" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E78" s="5"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+    </row>
+    <row r="79" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E79" s="5"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+    </row>
+    <row r="80" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E80" s="5"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+    </row>
+    <row r="81" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E81" s="5"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+    </row>
+    <row r="82" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E82" s="5"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+    </row>
+    <row r="83" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E83" s="5"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+    </row>
+    <row r="84" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E84" s="5"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+    </row>
+    <row r="85" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E85" s="5"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+    </row>
+    <row r="86" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E86" s="5"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+    </row>
+    <row r="87" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E87" s="5"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+    </row>
+    <row r="89" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E89" s="5"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+    </row>
+    <row r="90" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E90" s="5"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+    </row>
+    <row r="91" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E91" s="5"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+    </row>
+    <row r="92" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E92" s="5"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+    </row>
+    <row r="93" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E93" s="5"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+    </row>
+    <row r="94" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E94" s="5"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+    </row>
+    <row r="95" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E95" s="5"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+    </row>
+    <row r="96" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E96" s="5"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+    </row>
+    <row r="97" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E97" s="5"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+    </row>
+    <row r="98" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E98" s="5"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+    </row>
+    <row r="100" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E100" s="5"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+    </row>
+    <row r="101" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E101" s="5"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+    </row>
+    <row r="102" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E102" s="5"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+    </row>
+    <row r="103" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E103" s="5"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+    </row>
+    <row r="104" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E104" s="5"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+    </row>
+    <row r="105" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E105" s="5"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+    </row>
+    <row r="106" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E106" s="7"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+    </row>
+    <row r="107" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E107" s="7"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+    </row>
+    <row r="108" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E108" s="7"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+    </row>
+    <row r="109" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E109" s="7"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/table/Tables.xlsx
+++ b/table/Tables.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annabethlu/R_Projects/ded-dep-ibs/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E630F9-1C52-AF40-8F37-914EACD26055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25823895-D5D3-9F44-A7CA-A99146E19063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="740" windowWidth="28480" windowHeight="18380" activeTab="3" xr2:uid="{D515C405-0CB0-4046-88E1-6357459E1EB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of content" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="3" r:id="rId2"/>
-    <sheet name="2" sheetId="24" r:id="rId3"/>
-    <sheet name="大專生" sheetId="25" r:id="rId4"/>
+    <sheet name="2" sheetId="26" r:id="rId3"/>
+    <sheet name="3" sheetId="24" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,13 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="226">
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>Mendelian Randomization Results of the Tested Conditions.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="313">
   <si>
     <t>Genome-wide Association Study (GWAS)</t>
   </si>
@@ -583,12 +577,6 @@
     <t>1.110 [0.885–1.393]</t>
   </si>
   <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T2. Mendelian Randomization Results of the Tested Conditions.</t>
-  </si>
-  <si>
     <t>one-sample (n=55267)</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -747,12 +735,6 @@
   <si>
     <t>36.82% (3552)</t>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1. Demographic Information of Participants.</t>
-  </si>
-  <si>
-    <t>Demographic Information of Participants.</t>
   </si>
   <si>
     <t>Male Sex</t>
@@ -794,10 +776,312 @@
     <t>Two-sample</t>
   </si>
   <si>
-    <t>Two-Sample</t>
-  </si>
-  <si>
-    <t>Inverse-variance weighted (IVW)-Mendelian Randomization (MR)</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Genes Prioritized by Positional, eQTL and Chromatin Interaction Mappings</t>
+  </si>
+  <si>
+    <t>Table 2. Genes Prioritized by Positional, eQTL and Chromatin Interaction Mappings</t>
+  </si>
+  <si>
+    <t>Table 1. Demographic Information of Participants</t>
+  </si>
+  <si>
+    <t>Table 3. Mendelian Randomization Results of the Tested Conditions</t>
+  </si>
+  <si>
+    <t>Demographic Information of Participants</t>
+  </si>
+  <si>
+    <t>Mendelian Randomization Results of the Tested Conditions</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>strand</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>IndSigSNPs</t>
+  </si>
+  <si>
+    <t>ENSG00000124019</t>
+  </si>
+  <si>
+    <t>FAM124B</t>
+  </si>
+  <si>
+    <t>Left_Ventricle:Liver:GM12878:IMR90:Mesenchymal_Stem_Cell:Mesendoderm:Trophoblast-like_Cell:hESC</t>
+  </si>
+  <si>
+    <t>rs4624371</t>
+  </si>
+  <si>
+    <t>ENSG00000036257</t>
+  </si>
+  <si>
+    <t>CUL3</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Adult_Cortex:Fetal_Cortex:Aorta:Left_Ventricle:Liver:GM12878:IMR90:Mesenchymal_Stem_Cell:Mesendoderm:Trophoblast-like_Cell:hESC</t>
+  </si>
+  <si>
+    <t>ENSG00000228446</t>
+  </si>
+  <si>
+    <t>AC073052.1</t>
+  </si>
+  <si>
+    <t>pseudogene</t>
+  </si>
+  <si>
+    <t>Aorta:Left_Ventricle:Liver:GM12878:IMR90:Mesenchymal_Stem_Cell:Mesendoderm:Trophoblast-like_Cell:hESC</t>
+  </si>
+  <si>
+    <t>ENSG00000105993</t>
+  </si>
+  <si>
+    <t>DNAJB6</t>
+  </si>
+  <si>
+    <t>IMR90</t>
+  </si>
+  <si>
+    <t>rs9692250</t>
+  </si>
+  <si>
+    <t>ENSG00000074201</t>
+  </si>
+  <si>
+    <t>CLNS1A</t>
+  </si>
+  <si>
+    <t>Promoter_anchored_loops:IMR90</t>
+  </si>
+  <si>
+    <t>rs687037</t>
+  </si>
+  <si>
+    <t>ENSG00000178301</t>
+  </si>
+  <si>
+    <t>AQP11</t>
+  </si>
+  <si>
+    <t>IMR90:Mesenchymal_Stem_Cell:Mesendoderm:Trophoblast-like_Cell:hESC</t>
+  </si>
+  <si>
+    <t>Promoter_anchored_loops:Mesenchymal_Stem_Cell</t>
+  </si>
+  <si>
+    <t>ENSG00000254985</t>
+  </si>
+  <si>
+    <t>RSF1-IT2</t>
+  </si>
+  <si>
+    <t>sense_intronic</t>
+  </si>
+  <si>
+    <t>ENSG00000087884</t>
+  </si>
+  <si>
+    <t>AAMDC</t>
+  </si>
+  <si>
+    <t>ENSG00000254459</t>
+  </si>
+  <si>
+    <t>RP11-91P24.7</t>
+  </si>
+  <si>
+    <t>antisense</t>
+  </si>
+  <si>
+    <t>IMR90:Mesenchymal_Stem_Cell:Mesendoderm:hESC</t>
+  </si>
+  <si>
+    <t>ENSG00000254691</t>
+  </si>
+  <si>
+    <t>RP11-91P24.5</t>
+  </si>
+  <si>
+    <t>Promoter_anchored_loops:IMR90:Mesenchymal_Stem_Cell:Mesendoderm:hESC</t>
+  </si>
+  <si>
+    <t>ENSG00000255449</t>
+  </si>
+  <si>
+    <t>RP11-91P24.6</t>
+  </si>
+  <si>
+    <t>ENSG00000241782</t>
+  </si>
+  <si>
+    <t>RP11-91P24.1</t>
+  </si>
+  <si>
+    <t>ENSG00000149262</t>
+  </si>
+  <si>
+    <t>INTS4</t>
+  </si>
+  <si>
+    <t>Adult_Cortex:Fetal_Cortex:Left_Ventricle:Liver:IMR90:Mesenchymal_Stem_Cell:Mesendoderm:Trophoblast-like_Cell:hESC</t>
+  </si>
+  <si>
+    <t>rs927751</t>
+  </si>
+  <si>
+    <t>ENSG00000179133</t>
+  </si>
+  <si>
+    <t>C10orf67</t>
+  </si>
+  <si>
+    <t>ENSG00000224215</t>
+  </si>
+  <si>
+    <t>RP11-371A19.2</t>
+  </si>
+  <si>
+    <t>ENSG00000145349</t>
+  </si>
+  <si>
+    <t>CAMK2D</t>
+  </si>
+  <si>
+    <t>rs2040744</t>
+  </si>
+  <si>
+    <t>ENSG00000188107</t>
+  </si>
+  <si>
+    <t>EYS</t>
+  </si>
+  <si>
+    <t>Aorta:Liver:Mesenchymal_Stem_Cell:Mesendoderm:hESC</t>
+  </si>
+  <si>
+    <t>rs12663968</t>
+  </si>
+  <si>
+    <t>ENSG00000147408</t>
+  </si>
+  <si>
+    <t>CSGALNACT1</t>
+  </si>
+  <si>
+    <t>Adult_Cortex:Left_Ventricle:IMR90:Mesenchymal_Stem_Cell:Mesendoderm:Trophoblast-like_Cell:hESC</t>
+  </si>
+  <si>
+    <t>rs4332151</t>
+  </si>
+  <si>
+    <t>ENSG00000157450</t>
+  </si>
+  <si>
+    <t>RNF111</t>
+  </si>
+  <si>
+    <t>Trophoblast-like_Cell</t>
+  </si>
+  <si>
+    <t>rs34868598</t>
+  </si>
+  <si>
+    <t>Inflammatory Bowel Disease</t>
+  </si>
+  <si>
+    <t>ENSG</t>
+  </si>
+  <si>
+    <t>MAGMA</t>
+  </si>
+  <si>
+    <t>Positional Mapping</t>
+  </si>
+  <si>
+    <t>eQTL Mapping</t>
+  </si>
+  <si>
+    <t>Chromatin Interaction Mapping</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Max CADD</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>protein coding</t>
+  </si>
+  <si>
+    <t>+/–</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SNP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Min </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <t>Min Q</t>
   </si>
 </sst>
 </file>
@@ -808,7 +1092,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -890,6 +1174,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -899,7 +1190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1007,8 +1298,28 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1020,17 +1331,8 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1040,7 +1342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1144,6 +1446,60 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1159,18 +1515,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1189,20 +1551,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1540,33 +1890,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E74B-3A73-1040-8B0C-FC19782F7486}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="137.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>219</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -1580,9 +1938,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1600,7 +1956,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1610,94 +1966,94 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="35" t="s">
+      <c r="A2" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="57"/>
+      <c r="B3" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35" t="s">
+      <c r="F3" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>206</v>
-      </c>
       <c r="G3" s="31" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -1709,7 +2065,7 @@
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -1720,94 +2076,94 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35" t="s">
+      <c r="A8" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55"/>
+      <c r="B9" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>192</v>
-      </c>
       <c r="G9" s="31" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -1819,7 +2175,7 @@
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -1830,94 +2186,94 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" s="35" t="s">
+      <c r="A14" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55"/>
+      <c r="B15" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35" t="s">
+      <c r="F15" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>177</v>
-      </c>
       <c r="G15" s="31" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="F16" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>183</v>
-      </c>
       <c r="G16" s="29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -1929,7 +2285,7 @@
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
@@ -2041,12 +2397,1197 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DC725E-FE52-F14B-9308-0585E30E9573}">
+  <dimension ref="A1:R25"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="5" customWidth="1"/>
+    <col min="11" max="13" width="10.83203125" style="5"/>
+    <col min="14" max="14" width="6.83203125" style="41" customWidth="1"/>
+    <col min="15" max="15" width="7.1640625" style="5" customWidth="1"/>
+    <col min="16" max="17" width="10.83203125" style="5"/>
+    <col min="18" max="18" width="73" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="R3" s="40" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="37"/>
+    </row>
+    <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>225243415</v>
+      </c>
+      <c r="E5" s="1">
+        <v>225266802</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="H5" s="46">
+        <v>1.9569000000000001</v>
+      </c>
+      <c r="I5" s="44">
+        <v>2.5179E-2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>6</v>
+      </c>
+      <c r="K5" s="5">
+        <v>7.548</v>
+      </c>
+      <c r="L5" s="7">
+        <v>7.9629999999999897E-6</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="O5" s="5">
+        <v>193</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>225334867</v>
+      </c>
+      <c r="E6" s="1">
+        <v>225450110</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="H6" s="46">
+        <v>3.9108000000000001</v>
+      </c>
+      <c r="I6" s="44">
+        <v>4.5989000000000003E-5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>170</v>
+      </c>
+      <c r="K6" s="5">
+        <v>22.4</v>
+      </c>
+      <c r="L6" s="7">
+        <v>7.9629999999999897E-6</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="O6" s="5">
+        <v>189</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>225364104</v>
+      </c>
+      <c r="E7" s="1">
+        <v>225364817</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="J7" s="5">
+        <v>30</v>
+      </c>
+      <c r="K7" s="5">
+        <v>22.4</v>
+      </c>
+      <c r="L7" s="7">
+        <v>7.9629999999999897E-6</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="O7" s="5">
+        <v>209</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>157128075</v>
+      </c>
+      <c r="E8" s="1">
+        <v>157210133</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="H8" s="46">
+        <v>4.1135000000000002</v>
+      </c>
+      <c r="I8" s="44">
+        <v>1.9483999999999998E-5</v>
+      </c>
+      <c r="J8" s="5">
+        <v>99</v>
+      </c>
+      <c r="K8" s="5">
+        <v>9.0809999999999995</v>
+      </c>
+      <c r="L8" s="7">
+        <v>4.6600000000000003E-6</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="O8" s="5">
+        <v>98</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="1">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
+        <v>77225981</v>
+      </c>
+      <c r="E9" s="1">
+        <v>77348850</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="H9" s="46">
+        <v>1.8856999999999999</v>
+      </c>
+      <c r="I9" s="44">
+        <v>2.9666999999999999E-2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="L9" s="7">
+        <v>5.1189999999999903E-6</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="N9" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="O9" s="5">
+        <v>36</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="1">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1">
+        <v>77300436</v>
+      </c>
+      <c r="E10" s="1">
+        <v>77321400</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="L10" s="7">
+        <v>5.1189999999999903E-6</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="N10" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="O10" s="5">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="38" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>77428757</v>
+      </c>
+      <c r="E11" s="1">
+        <v>77429456</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2</v>
+      </c>
+      <c r="K11" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="L11" s="7">
+        <v>3.1649999999999902E-5</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="N11" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="O11" s="5">
+        <v>2</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="38" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>77532155</v>
+      </c>
+      <c r="E12" s="1">
+        <v>77629478</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="H12" s="46">
+        <v>3.181</v>
+      </c>
+      <c r="I12" s="44">
+        <v>7.3379999999999995E-4</v>
+      </c>
+      <c r="J12" s="5">
+        <v>33</v>
+      </c>
+      <c r="K12" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="L12" s="7">
+        <v>5.1189999999999903E-6</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="N12" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="O12" s="5">
+        <v>65</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="38" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1">
+        <v>77540700</v>
+      </c>
+      <c r="E13" s="1">
+        <v>77583308</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="J13" s="5">
+        <v>24</v>
+      </c>
+      <c r="K13" s="5">
+        <v>12.9</v>
+      </c>
+      <c r="L13" s="7">
+        <v>5.1189999999999903E-6</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="N13" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="O13" s="5">
+        <v>60</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1">
+        <v>77561650</v>
+      </c>
+      <c r="E14" s="1">
+        <v>77562557</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="J14" s="5">
+        <v>7</v>
+      </c>
+      <c r="K14" s="5">
+        <v>9.8940000000000001</v>
+      </c>
+      <c r="L14" s="7">
+        <v>5.1189999999999903E-6</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="N14" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="O14" s="5">
+        <v>60</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="1">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>77577458</v>
+      </c>
+      <c r="E15" s="1">
+        <v>77581137</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="J15" s="5">
+        <v>12</v>
+      </c>
+      <c r="K15" s="5">
+        <v>12.9</v>
+      </c>
+      <c r="L15" s="7">
+        <v>5.1189999999999903E-6</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="N15" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="O15" s="5">
+        <v>41</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>77579768</v>
+      </c>
+      <c r="E16" s="1">
+        <v>77580241</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="J16" s="5">
+        <v>10</v>
+      </c>
+      <c r="K16" s="5">
+        <v>12.9</v>
+      </c>
+      <c r="L16" s="7">
+        <v>5.1189999999999903E-6</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="N16" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="O16" s="5">
+        <v>59</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="1">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>77589766</v>
+      </c>
+      <c r="E17" s="1">
+        <v>77705724</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="H17" s="46">
+        <v>2.1533000000000002</v>
+      </c>
+      <c r="I17" s="44">
+        <v>1.5649E-2</v>
+      </c>
+      <c r="J17" s="5">
+        <v>13</v>
+      </c>
+      <c r="K17" s="5">
+        <v>14.98</v>
+      </c>
+      <c r="L17" s="7">
+        <v>5.1189999999999903E-6</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="N17" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="O17" s="5">
+        <v>66</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="37"/>
+    </row>
+    <row r="19" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>23556124</v>
+      </c>
+      <c r="E19" s="1">
+        <v>23633774</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="H19" s="46">
+        <v>3.8144999999999998</v>
+      </c>
+      <c r="I19" s="44">
+        <v>6.8224000000000003E-5</v>
+      </c>
+      <c r="J19" s="5">
+        <v>31</v>
+      </c>
+      <c r="K19" s="5">
+        <v>5.6379999999999999</v>
+      </c>
+      <c r="L19" s="7">
+        <v>1.5200000000000001E-6</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="N19" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="O19" s="5">
+        <v>59</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>23632886</v>
+      </c>
+      <c r="E20" s="1">
+        <v>23634110</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="J20" s="5">
+        <v>20</v>
+      </c>
+      <c r="K20" s="5">
+        <v>5.6379999999999999</v>
+      </c>
+      <c r="L20" s="7">
+        <v>3.18E-6</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="N20" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="O20" s="5">
+        <v>57</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="37"/>
+    </row>
+    <row r="22" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>114372188</v>
+      </c>
+      <c r="E22" s="1">
+        <v>114683083</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="H22" s="48">
+        <v>0.83581000000000005</v>
+      </c>
+      <c r="I22" s="44">
+        <v>0.20163</v>
+      </c>
+      <c r="K22" s="5">
+        <v>6.6879999999999997</v>
+      </c>
+      <c r="L22" s="7">
+        <v>6.7939999999999903E-6</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="N22" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="O22" s="5">
+        <v>17</v>
+      </c>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>64429876</v>
+      </c>
+      <c r="E23" s="1">
+        <v>66417118</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="H23" s="46">
+        <v>4.4518000000000004</v>
+      </c>
+      <c r="I23" s="44">
+        <v>4.2579999999999997E-6</v>
+      </c>
+      <c r="J23" s="5">
+        <v>248</v>
+      </c>
+      <c r="K23" s="5">
+        <v>14.04</v>
+      </c>
+      <c r="L23" s="7">
+        <v>8.6160000000000002E-6</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="N23" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="O23" s="5">
+        <v>218</v>
+      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>19261672</v>
+      </c>
+      <c r="E24" s="1">
+        <v>19615540</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="H24" s="46">
+        <v>4.1064999999999996</v>
+      </c>
+      <c r="I24" s="44">
+        <v>2.0085000000000002E-5</v>
+      </c>
+      <c r="J24" s="5">
+        <v>103</v>
+      </c>
+      <c r="K24" s="5">
+        <v>13.07</v>
+      </c>
+      <c r="L24" s="7">
+        <v>7.5719999999999904E-6</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="N24" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="O24" s="5">
+        <v>79</v>
+      </c>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="1">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1">
+        <v>59157374</v>
+      </c>
+      <c r="E25" s="1">
+        <v>59389618</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="H25" s="46">
+        <v>3.1720000000000002</v>
+      </c>
+      <c r="I25" s="44">
+        <v>7.5688000000000003E-4</v>
+      </c>
+      <c r="J25" s="5">
+        <v>20</v>
+      </c>
+      <c r="K25" s="5">
+        <v>7.6980000000000004</v>
+      </c>
+      <c r="L25" s="7">
+        <v>8.4789999999999895E-6</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="N25" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="O25" s="5">
+        <v>2</v>
+      </c>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB27E05F-5D19-7A47-8A77-5E10E63EA604}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O133"/>
+  <dimension ref="A1:P133"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2067,9 +3608,9 @@
     <col min="14" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -2084,1484 +3625,1516 @@
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="69"/>
+      <c r="K2" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="63"/>
+    </row>
+    <row r="3" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="48" t="s">
+      <c r="M3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="26"/>
+    </row>
+    <row r="4" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="26"/>
+    </row>
+    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="40"/>
-    </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="O3" s="26"/>
-    </row>
-    <row r="4" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="26"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="8">
         <v>0.318613668993319</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" s="18">
         <v>0.563800400247494</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H5" s="8">
         <v>0.33974967916048898</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J5" s="16">
         <v>8.8589736230517496E-2</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L5" s="8">
         <v>0.54515296300000005</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N5" s="8">
         <v>0.38106893052840601</v>
       </c>
       <c r="O5" s="26"/>
-    </row>
-    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
+      <c r="P5" s="70"/>
+    </row>
+    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="58"/>
       <c r="B6" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="8">
         <v>1.2260426980827E-4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="16">
         <v>6.0331245184051502E-2</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H6" s="8">
         <v>7.6109738862098304E-3</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J6" s="16">
         <v>2.29773775382251E-2</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L6" s="8">
         <v>6.1079100999999997E-2</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N6" s="8">
         <v>1.15793313475917E-2</v>
       </c>
       <c r="O6" s="26"/>
-    </row>
-    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
+      <c r="P6" s="70"/>
+    </row>
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="58"/>
       <c r="B7" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F7" s="16">
         <v>6.44450341855569E-4</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H7" s="8">
         <v>1.6163995229760201E-4</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J7" s="16">
         <v>2.43339769734111E-4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L7" s="8">
         <v>5.4625500000000005E-4</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O7" s="26"/>
-    </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+      <c r="P7" s="70"/>
+    </row>
+    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="58"/>
       <c r="B8" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D8" s="8">
         <v>2.8374131954616501E-2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F8" s="16">
         <v>0.30936586596794902</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H8" s="8">
         <v>0.30849154091916098</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J8" s="16">
         <v>0.23516877900637001</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L8" s="8">
         <v>0.31031989500000001</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N8" s="8">
         <v>0.42471750538549602</v>
       </c>
       <c r="O8" s="26"/>
-    </row>
-    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
+      <c r="P8" s="70"/>
+    </row>
+    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="58"/>
       <c r="B9" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D9" s="8">
         <v>1.98044371834111E-2</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="16">
         <v>0.297568724568674</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H9" s="8">
         <v>0.34083077806289502</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J9" s="16">
         <v>0.21988407366716101</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L9" s="8">
         <v>0.31672435599999998</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N9" s="8">
         <v>0.39740315206358801</v>
       </c>
       <c r="O9" s="26"/>
-    </row>
-    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
-        <v>223</v>
+      <c r="P9" s="70"/>
+    </row>
+    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="58" t="s">
+        <v>217</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="8">
         <v>0.57554022744008204</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="16">
         <v>7.7456260389439494E-2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H10" s="8">
         <v>0.94393948486502099</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J10" s="16">
         <v>0.19032149238367299</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L10" s="8">
         <v>0.12785369585291101</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N10" s="8">
         <v>5.8407805811169999E-2</v>
       </c>
       <c r="O10" s="26"/>
-    </row>
-    <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
+      <c r="P10" s="70"/>
+    </row>
+    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="58"/>
       <c r="B11" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="8">
         <v>6.0660665212723397E-3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F11" s="16">
         <v>1.88100694780679E-3</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H11" s="8">
         <v>1.1372826337850099E-2</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J11" s="16">
         <v>1.55384932789915E-3</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L11" s="8">
         <v>4.9244461720052103E-3</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N11" s="8">
         <v>7.9525598884296906E-3</v>
       </c>
       <c r="O11" s="26"/>
-    </row>
-    <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
+      <c r="P11" s="70"/>
+    </row>
+    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="58"/>
       <c r="B12" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D12" s="8">
         <v>2.61976585336442E-4</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H12" s="8">
         <v>1.6908049127397099E-4</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N12" s="8">
         <v>5.3799840360692598E-5</v>
       </c>
       <c r="O12" s="26"/>
-    </row>
-    <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
+      <c r="P12" s="70"/>
+    </row>
+    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="58"/>
       <c r="B13" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="8">
         <v>9.7097307523947907E-2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13" s="16">
         <v>0.36222819189239602</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H13" s="8">
         <v>0.111434614062212</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J13" s="16">
         <v>0.23376542792816499</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L13" s="8">
         <v>0.18608225356026301</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N13" s="8">
         <v>0.167336762598818</v>
       </c>
       <c r="O13" s="26"/>
-    </row>
-    <row r="14" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="P13" s="70"/>
+    </row>
+    <row r="14" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="61"/>
       <c r="B14" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="8">
         <v>8.4527383122379701E-2</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" s="17">
         <v>0.39411051219694199</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H14" s="8">
         <v>9.9242076882712402E-2</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J14" s="16">
         <v>0.29703930374565501</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L14" s="8">
         <v>0.11589693383140499</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N14" s="8">
         <v>0.159973818673354</v>
       </c>
       <c r="O14" s="26"/>
-    </row>
-    <row r="15" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
+      <c r="P14" s="70"/>
+    </row>
+    <row r="15" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
       <c r="O15" s="26"/>
-    </row>
-    <row r="16" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
-        <v>16</v>
+      <c r="P15" s="70"/>
+    </row>
+    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="60" t="s">
+        <v>14</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="8">
         <v>0.30148180504386801</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="18">
         <v>0.31784416489694101</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H16" s="8">
         <v>0.63191332590537796</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J16" s="18">
         <v>9.65543711720903E-2</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L16" s="8">
         <v>0.54515973917622196</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N16" s="8">
         <v>0.37890405517586201</v>
       </c>
       <c r="O16" s="26"/>
-    </row>
-    <row r="17" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
+      <c r="P16" s="70"/>
+    </row>
+    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="58"/>
       <c r="B17" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="8">
         <v>9.6995879378496794E-5</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="16">
         <v>1.8787607733506399E-2</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H17" s="8">
         <v>9.1009286577973195E-3</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J17" s="16">
         <v>1.9634629278711201E-2</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L17" s="8">
         <v>5.4135696876624E-2</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N17" s="8">
         <v>1.3166532350849299E-2</v>
       </c>
       <c r="O17" s="26"/>
-    </row>
-    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
+      <c r="P17" s="70"/>
+    </row>
+    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="58"/>
       <c r="B18" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18" s="16">
         <v>2.6320121289647499E-4</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J18" s="16">
         <v>1.8506083550352901E-4</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L18" s="8">
         <v>5.4678864152213802E-4</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O18" s="26"/>
-    </row>
-    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
+      <c r="P18" s="70"/>
+    </row>
+    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="58"/>
       <c r="B19" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="8">
         <v>2.0163240528978301E-2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F19" s="16">
         <v>0.28528614864112201</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H19" s="8">
         <v>0.23507685055865199</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J19" s="16">
         <v>0.156275132214447</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L19" s="8">
         <v>0.35710569477605503</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N19" s="8">
         <v>0.39340512922514598</v>
       </c>
       <c r="O19" s="26"/>
-    </row>
-    <row r="20" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
+      <c r="P19" s="70"/>
+    </row>
+    <row r="20" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="58"/>
       <c r="B20" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="8">
         <v>2.9691241623267198E-2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F20" s="16">
         <v>0.31587379236272001</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H20" s="8">
         <v>0.21594874795685301</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J20" s="16">
         <v>0.182634409002353</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L20" s="8">
         <v>0.30861000631758201</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N20" s="8">
         <v>0.35337022863699302</v>
       </c>
       <c r="O20" s="26"/>
-    </row>
-    <row r="21" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
-        <v>223</v>
+      <c r="P20" s="70"/>
+    </row>
+    <row r="21" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="58" t="s">
+        <v>217</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="8">
         <v>0.60109480386068004</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F21" s="16">
         <v>7.8238020996597296E-2</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H21" s="8">
         <v>0.94379989851408896</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J21" s="16">
         <v>0.190322298364068</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L21" s="8">
         <v>0.13728814288327501</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N21" s="8">
         <v>0.11913339381211201</v>
       </c>
       <c r="O21" s="26"/>
-    </row>
-    <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
+      <c r="P21" s="70"/>
+    </row>
+    <row r="22" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="58"/>
       <c r="B22" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="8">
         <v>7.9964726073686009E-3</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F22" s="16">
         <v>1.7447103660441601E-3</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H22" s="8">
         <v>1.23369773579604E-2</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J22" s="16">
         <v>1.66950472349818E-3</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L22" s="8">
         <v>4.9103680328189403E-3</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N22" s="8">
         <v>1.1056362777466E-2</v>
       </c>
       <c r="O22" s="26"/>
-    </row>
-    <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
+      <c r="P22" s="70"/>
+    </row>
+    <row r="23" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="58"/>
       <c r="B23" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D23" s="8">
         <v>2.7381435832715098E-4</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H23" s="8">
         <v>1.6937351737524901E-4</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N23" s="8">
         <v>5.8679478272561096E-4</v>
       </c>
       <c r="O23" s="26"/>
-    </row>
-    <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
+      <c r="P23" s="70"/>
+    </row>
+    <row r="24" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="58"/>
       <c r="B24" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" s="8">
         <v>4.5309233424289698E-2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" s="16">
         <v>0.37579672963191202</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H24" s="8">
         <v>0.103301391489376</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J24" s="16">
         <v>0.263118893385894</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L24" s="8">
         <v>0.18357521424303799</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N24" s="8">
         <v>0.102270857663914</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="P24" s="70"/>
+    </row>
+    <row r="25" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="61"/>
       <c r="B25" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D25" s="8">
         <v>6.2872332199554196E-2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F25" s="17">
         <v>0.401780121940359</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H25" s="8">
         <v>9.1622276134029207E-2</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J25" s="17">
         <v>0.308628152382807</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L25" s="8">
         <v>0.37237681627696401</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N25" s="8">
         <v>9.9620575405391196E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-    </row>
-    <row r="27" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
+      <c r="P25" s="70"/>
+    </row>
+    <row r="26" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="P26" s="70"/>
+    </row>
+    <row r="27" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H27" s="8">
         <v>0.95130942229704296</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J27" s="18">
         <v>8.8589736230517496E-2</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L27" s="8">
         <v>0.701257964188574</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N27" s="8">
         <v>0.38106893052840601</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
+      <c r="P27" s="70"/>
+    </row>
+    <row r="28" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="58"/>
       <c r="B28" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H28" s="8">
         <v>4.7393322920076399E-2</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J28" s="16">
         <v>2.7683170835430902E-2</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L28" s="8">
         <v>3.8686310298523499E-2</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N28" s="8">
         <v>1.44882589075758E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
+      <c r="P28" s="70"/>
+    </row>
+    <row r="29" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="58"/>
       <c r="B29" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H29" s="8">
         <v>1.7830546134309201E-4</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J29" s="16">
         <v>2.43339769734111E-4</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L29" s="8">
         <v>5.5545544292901297E-4</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N29" s="34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
+        <v>135</v>
+      </c>
+      <c r="P29" s="70"/>
+    </row>
+    <row r="30" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="58"/>
       <c r="B30" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H30" s="8">
         <v>0.23608954843695101</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J30" s="16">
         <v>0.22047293491591599</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L30" s="8">
         <v>0.18343382884173301</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N30" s="8">
         <v>0.35601381888108602</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
+      <c r="P30" s="70"/>
+    </row>
+    <row r="31" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="58"/>
       <c r="B31" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H31" s="8">
         <v>0.20341900346097599</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J31" s="16">
         <v>0.248733527608966</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L31" s="8">
         <v>0.188518911265526</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N31" s="8">
         <v>0.40157310797477302</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
-        <v>223</v>
+      <c r="P31" s="70"/>
+    </row>
+    <row r="32" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="58" t="s">
+        <v>217</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H32" s="8">
         <v>0.36900759066911398</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J32" s="16">
         <v>0.19032149238367299</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L32" s="8">
         <v>0.12703138005217801</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N32" s="8">
         <v>5.8407805811169999E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
+      <c r="P32" s="70"/>
+    </row>
+    <row r="33" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="58"/>
       <c r="B33" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H33" s="8">
         <v>1.4743504993499201E-2</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J33" s="16">
         <v>1.4619212769827099E-3</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L33" s="8">
         <v>6.08413962444577E-3</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N33" s="8">
         <v>7.6306339845722496E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
+      <c r="P33" s="70"/>
+    </row>
+    <row r="34" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="58"/>
       <c r="B34" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H34" s="8">
         <v>1.99729618019719E-4</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L34" s="34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N34" s="8">
         <v>5.3799840360692598E-5</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
+      <c r="P34" s="70"/>
+    </row>
+    <row r="35" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="58"/>
       <c r="B35" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H35" s="8">
         <v>0.25909798397546302</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J35" s="16">
         <v>0.25266037824438398</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L35" s="8">
         <v>0.39052694862718701</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N35" s="8">
         <v>0.18536224528602299</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="P35" s="70"/>
+    </row>
+    <row r="36" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="61"/>
       <c r="B36" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H36" s="14">
         <v>0.21298294603339599</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J36" s="17">
         <v>0.38015583257087499</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L36" s="14">
         <v>0.39283048768007101</v>
       </c>
       <c r="M36" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N36" s="14">
         <v>0.17157671655635501</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P36" s="70"/>
+    </row>
+    <row r="37" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F37" s="5"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F38" s="5"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="5"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F40" s="5"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F41" s="5"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F42" s="5"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F43" s="5"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F44" s="5"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F45" s="5"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F47" s="5"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F48" s="5"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -4037,11 +5610,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A26:N26"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A4:N4"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A21:A25"/>
@@ -4053,973 +5621,11 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D036A6-B54F-5145-AD3C-38102BBA3DFE}">
-  <dimension ref="A1:N109"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="3"/>
-    <col min="4" max="4" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="3"/>
-    <col min="8" max="8" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="3"/>
-    <col min="10" max="10" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="3"/>
-    <col min="12" max="12" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="40"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="N3" s="26"/>
-    </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="26"/>
-    </row>
-    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="16">
-        <v>6.44450341855569E-4</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1.6163995229760201E-4</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="16">
-        <v>2.43339769734111E-4</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" s="8">
-        <v>5.4625500000000005E-4</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="N5" s="26"/>
-    </row>
-    <row r="6" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2.61976585336442E-4</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1.6908049127397099E-4</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="M6" s="8">
-        <v>5.3799840360692598E-5</v>
-      </c>
-      <c r="N6" s="26"/>
-    </row>
-    <row r="7" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="26"/>
-    </row>
-    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="16">
-        <v>2.6320121289647499E-4</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="16">
-        <v>1.8506083550352901E-4</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="8">
-        <v>5.4678864152213802E-4</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="N8" s="26"/>
-    </row>
-    <row r="9" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="8">
-        <v>2.7381435832715098E-4</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1.6937351737524901E-4</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="M9" s="8">
-        <v>5.8679478272561096E-4</v>
-      </c>
-      <c r="N9" s="26"/>
-    </row>
-    <row r="10" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-    </row>
-    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1.7830546134309201E-4</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="16">
-        <v>2.43339769734111E-4</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="8">
-        <v>5.5545544292901297E-4</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11" s="34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1.99729618019719E-4</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M12" s="8">
-        <v>5.3799840360692598E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E18" s="5"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E19" s="5"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="5"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="23" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="5"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="5"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="5"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="5"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="5"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="5"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="5"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="5"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="5"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="5"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="34" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E34" s="5"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E35" s="5"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E36" s="5"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E37" s="5"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E38" s="5"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E39" s="5"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E40" s="5"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E41" s="5"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E42" s="5"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E43" s="5"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="45" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E45" s="5"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-    </row>
-    <row r="46" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E46" s="5"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E47" s="5"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-    </row>
-    <row r="48" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E48" s="5"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-    </row>
-    <row r="49" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E49" s="5"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-    </row>
-    <row r="50" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E50" s="5"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E51" s="5"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E52" s="5"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-    </row>
-    <row r="53" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E53" s="5"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-    </row>
-    <row r="54" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E54" s="5"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-    </row>
-    <row r="56" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E56" s="5"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-    </row>
-    <row r="57" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E57" s="5"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-    </row>
-    <row r="58" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E58" s="5"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-    </row>
-    <row r="59" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E59" s="5"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-    </row>
-    <row r="60" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E60" s="5"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-    </row>
-    <row r="61" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E61" s="5"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-    </row>
-    <row r="62" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E62" s="5"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-    </row>
-    <row r="63" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E63" s="5"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-    </row>
-    <row r="64" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E64" s="5"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-    </row>
-    <row r="65" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E65" s="5"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-    </row>
-    <row r="67" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E67" s="5"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-    </row>
-    <row r="68" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E68" s="5"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-    </row>
-    <row r="69" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E69" s="5"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-    </row>
-    <row r="70" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E70" s="5"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-    </row>
-    <row r="71" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E71" s="5"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-    </row>
-    <row r="72" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E72" s="5"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-    </row>
-    <row r="73" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E73" s="5"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-    </row>
-    <row r="74" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E74" s="5"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-    </row>
-    <row r="75" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E75" s="5"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-    </row>
-    <row r="76" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E76" s="5"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-    </row>
-    <row r="78" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E78" s="5"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-    </row>
-    <row r="79" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E79" s="5"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-    </row>
-    <row r="80" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E80" s="5"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-    </row>
-    <row r="81" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E81" s="5"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-    </row>
-    <row r="82" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E82" s="5"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-    </row>
-    <row r="83" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E83" s="5"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-    </row>
-    <row r="84" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E84" s="5"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-    </row>
-    <row r="85" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E85" s="5"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-    </row>
-    <row r="86" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E86" s="5"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-    </row>
-    <row r="87" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E87" s="5"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-    </row>
-    <row r="89" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E89" s="5"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-    </row>
-    <row r="90" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E90" s="5"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-    </row>
-    <row r="91" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E91" s="5"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-    </row>
-    <row r="92" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E92" s="5"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-    </row>
-    <row r="93" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E93" s="5"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-    </row>
-    <row r="94" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E94" s="5"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-    </row>
-    <row r="95" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E95" s="5"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-    </row>
-    <row r="96" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E96" s="5"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-    </row>
-    <row r="97" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E97" s="5"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-    </row>
-    <row r="98" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E98" s="5"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-    </row>
-    <row r="100" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E100" s="5"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-    </row>
-    <row r="101" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E101" s="5"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-    </row>
-    <row r="102" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E102" s="5"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-    </row>
-    <row r="103" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E103" s="5"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-    </row>
-    <row r="104" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E104" s="5"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-    </row>
-    <row r="105" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E105" s="5"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-    </row>
-    <row r="106" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E106" s="7"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-    </row>
-    <row r="107" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E107" s="7"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-    </row>
-    <row r="108" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E108" s="7"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-    </row>
-    <row r="109" spans="5:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E109" s="7"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A26:N26"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/table/Tables.xlsx
+++ b/table/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annabethlu/R_Projects/ded-dep-ibs/table/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annabethlu/Projects/ded-dep-ibs/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25823895-D5D3-9F44-A7CA-A99146E19063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4694AEF9-CAF0-2E44-8415-F0AA21E2EBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="740" windowWidth="28480" windowHeight="18380" activeTab="3" xr2:uid="{D515C405-0CB0-4046-88E1-6357459E1EB7}"/>
+    <workbookView xWindow="920" yWindow="760" windowWidth="28480" windowHeight="18360" activeTab="1" xr2:uid="{D515C405-0CB0-4046-88E1-6357459E1EB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of content" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="317">
   <si>
     <t>Genome-wide Association Study (GWAS)</t>
   </si>
@@ -693,14 +693,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Case (n= 1226)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Control (n= 26962)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Case (n= 407)</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1082,6 +1074,24 @@
   </si>
   <si>
     <t>Min Q</t>
+  </si>
+  <si>
+    <t>8.96% (152)</t>
+  </si>
+  <si>
+    <t>3.33% (152)</t>
+  </si>
+  <si>
+    <t>12.97% (220)</t>
+  </si>
+  <si>
+    <t>13.59 (620)</t>
+  </si>
+  <si>
+    <t>Case (n= 9353)</t>
+  </si>
+  <si>
+    <t>Control (n= 18835)</t>
   </si>
 </sst>
 </file>
@@ -1500,6 +1510,9 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1550,9 +1563,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1905,26 +1915,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>219</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1948,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1956,7 +1968,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1966,40 +1978,40 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="F3" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>202</v>
-      </c>
       <c r="G3" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -2008,19 +2020,19 @@
         <v>174</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>177</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>177</v>
@@ -2029,22 +2041,22 @@
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>177</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>177</v>
@@ -2053,46 +2065,54 @@
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
+      <c r="C6" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="G6" s="28"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="C7" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="F7" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="G7" s="32"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53" t="s">
+      <c r="A8" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="31" t="s">
         <v>185</v>
       </c>
@@ -2100,7 +2120,7 @@
         <v>186</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>187</v>
@@ -2109,7 +2129,7 @@
         <v>188</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I9" s="4"/>
     </row>
@@ -2139,7 +2159,7 @@
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>193</v>
@@ -2163,46 +2183,58 @@
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+        <v>212</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="D12" s="29"/>
       <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="F12" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="G12" s="29"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+        <v>211</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="D13" s="29"/>
       <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="F13" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="G13" s="29"/>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="53" t="s">
+      <c r="A14" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53" t="s">
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="31" t="s">
         <v>170</v>
       </c>
@@ -2210,7 +2242,7 @@
         <v>171</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>172</v>
@@ -2219,7 +2251,7 @@
         <v>173</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I15" s="4"/>
     </row>
@@ -2249,7 +2281,7 @@
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>180</v>
@@ -2273,25 +2305,37 @@
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+        <v>212</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="D18" s="29"/>
       <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="F18" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="G18" s="29"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+        <v>214</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="F19" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="G19" s="32"/>
       <c r="I19" s="4"/>
     </row>
@@ -2425,96 +2469,96 @@
   <sheetData>
     <row r="1" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="I2" s="60"/>
+      <c r="J2" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="58" t="s">
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="M3" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>299</v>
-      </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="I3" s="42" t="s">
+      <c r="N3" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="R3" s="40" t="s">
         <v>304</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>308</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q3" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="R3" s="40" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -2536,10 +2580,10 @@
     </row>
     <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -2554,7 +2598,7 @@
         <v>-1</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H5" s="46">
         <v>1.9569000000000001</v>
@@ -2572,10 +2616,10 @@
         <v>7.9629999999999897E-6</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N5" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O5" s="5">
         <v>193</v>
@@ -2583,15 +2627,15 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="50"/>
       <c r="R5" s="38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -2606,7 +2650,7 @@
         <v>-1</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H6" s="46">
         <v>3.9108000000000001</v>
@@ -2624,10 +2668,10 @@
         <v>7.9629999999999897E-6</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N6" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O6" s="5">
         <v>189</v>
@@ -2635,15 +2679,15 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="39"/>
       <c r="R6" s="38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -2658,13 +2702,13 @@
         <v>-1</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H7" s="46" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J7" s="5">
         <v>30</v>
@@ -2676,10 +2720,10 @@
         <v>7.9629999999999897E-6</v>
       </c>
       <c r="M7" s="39" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N7" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O7" s="5">
         <v>209</v>
@@ -2687,15 +2731,15 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="39"/>
       <c r="R7" s="38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -2710,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H8" s="46">
         <v>4.1135000000000002</v>
@@ -2728,10 +2772,10 @@
         <v>4.6600000000000003E-6</v>
       </c>
       <c r="M8" s="39" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N8" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O8" s="5">
         <v>98</v>
@@ -2739,15 +2783,15 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="39"/>
       <c r="R8" s="38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C9" s="1">
         <v>11</v>
@@ -2762,7 +2806,7 @@
         <v>-1</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H9" s="46">
         <v>1.8856999999999999</v>
@@ -2780,10 +2824,10 @@
         <v>5.1189999999999903E-6</v>
       </c>
       <c r="M9" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N9" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O9" s="5">
         <v>36</v>
@@ -2791,15 +2835,15 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="44"/>
       <c r="R9" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C10" s="1">
         <v>11</v>
@@ -2814,13 +2858,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="H10" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="H10" s="46" t="s">
-        <v>309</v>
-      </c>
       <c r="I10" s="44" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J10" s="5">
         <v>1</v>
@@ -2832,10 +2876,10 @@
         <v>5.1189999999999903E-6</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N10" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O10" s="5">
         <v>62</v>
@@ -2843,15 +2887,15 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="39"/>
       <c r="R10" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C11" s="1">
         <v>11</v>
@@ -2866,13 +2910,13 @@
         <v>-1</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J11" s="5">
         <v>2</v>
@@ -2884,10 +2928,10 @@
         <v>3.1649999999999902E-5</v>
       </c>
       <c r="M11" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N11" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O11" s="5">
         <v>2</v>
@@ -2895,15 +2939,15 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="44"/>
       <c r="R11" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
@@ -2918,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H12" s="46">
         <v>3.181</v>
@@ -2936,10 +2980,10 @@
         <v>5.1189999999999903E-6</v>
       </c>
       <c r="M12" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N12" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O12" s="5">
         <v>65</v>
@@ -2947,15 +2991,15 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
@@ -2970,13 +3014,13 @@
         <v>-1</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H13" s="46" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J13" s="5">
         <v>24</v>
@@ -2988,10 +3032,10 @@
         <v>5.1189999999999903E-6</v>
       </c>
       <c r="M13" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N13" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O13" s="5">
         <v>60</v>
@@ -2999,15 +3043,15 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="44"/>
       <c r="R13" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
@@ -3022,13 +3066,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J14" s="5">
         <v>7</v>
@@ -3040,10 +3084,10 @@
         <v>5.1189999999999903E-6</v>
       </c>
       <c r="M14" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N14" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O14" s="5">
         <v>60</v>
@@ -3051,15 +3095,15 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="39"/>
       <c r="R14" s="38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C15" s="1">
         <v>11</v>
@@ -3074,13 +3118,13 @@
         <v>-1</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J15" s="5">
         <v>12</v>
@@ -3092,10 +3136,10 @@
         <v>5.1189999999999903E-6</v>
       </c>
       <c r="M15" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N15" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O15" s="5">
         <v>41</v>
@@ -3103,15 +3147,15 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="44"/>
       <c r="R15" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C16" s="1">
         <v>11</v>
@@ -3126,13 +3170,13 @@
         <v>-1</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J16" s="5">
         <v>10</v>
@@ -3144,10 +3188,10 @@
         <v>5.1189999999999903E-6</v>
       </c>
       <c r="M16" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N16" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O16" s="5">
         <v>59</v>
@@ -3155,15 +3199,15 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="39"/>
       <c r="R16" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C17" s="1">
         <v>11</v>
@@ -3178,7 +3222,7 @@
         <v>-1</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H17" s="46">
         <v>2.1533000000000002</v>
@@ -3196,10 +3240,10 @@
         <v>5.1189999999999903E-6</v>
       </c>
       <c r="M17" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N17" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O17" s="5">
         <v>66</v>
@@ -3207,12 +3251,12 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="51"/>
       <c r="R17" s="38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -3234,10 +3278,10 @@
     </row>
     <row r="19" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C19" s="1">
         <v>10</v>
@@ -3252,7 +3296,7 @@
         <v>-1</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H19" s="46">
         <v>3.8144999999999998</v>
@@ -3270,10 +3314,10 @@
         <v>1.5200000000000001E-6</v>
       </c>
       <c r="M19" s="39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N19" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O19" s="5">
         <v>59</v>
@@ -3281,15 +3325,15 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="44"/>
       <c r="R19" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -3304,13 +3348,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H20" s="46" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J20" s="5">
         <v>20</v>
@@ -3322,10 +3366,10 @@
         <v>3.18E-6</v>
       </c>
       <c r="M20" s="39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N20" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O20" s="5">
         <v>57</v>
@@ -3333,12 +3377,12 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="52"/>
       <c r="R20" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -3360,10 +3404,10 @@
     </row>
     <row r="22" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
@@ -3378,7 +3422,7 @@
         <v>-1</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H22" s="48">
         <v>0.83581000000000005</v>
@@ -3393,10 +3437,10 @@
         <v>6.7939999999999903E-6</v>
       </c>
       <c r="M22" s="39" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N22" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O22" s="5">
         <v>17</v>
@@ -3404,15 +3448,15 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="50"/>
       <c r="R22" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C23" s="1">
         <v>6</v>
@@ -3427,7 +3471,7 @@
         <v>-1</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H23" s="46">
         <v>4.4518000000000004</v>
@@ -3445,10 +3489,10 @@
         <v>8.6160000000000002E-6</v>
       </c>
       <c r="M23" s="39" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N23" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O23" s="5">
         <v>218</v>
@@ -3456,15 +3500,15 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="44"/>
       <c r="R23" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C24" s="1">
         <v>8</v>
@@ -3479,7 +3523,7 @@
         <v>-1</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H24" s="46">
         <v>4.1064999999999996</v>
@@ -3497,10 +3541,10 @@
         <v>7.5719999999999904E-6</v>
       </c>
       <c r="M24" s="39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N24" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O24" s="5">
         <v>79</v>
@@ -3508,15 +3552,15 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="39"/>
       <c r="R24" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C25" s="1">
         <v>15</v>
@@ -3531,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H25" s="46">
         <v>3.1720000000000002</v>
@@ -3549,10 +3593,10 @@
         <v>8.4789999999999895E-6</v>
       </c>
       <c r="M25" s="39" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N25" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O25" s="5">
         <v>2</v>
@@ -3560,7 +3604,7 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="39"/>
       <c r="R25" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3586,7 +3630,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="75" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3610,7 +3654,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -3626,38 +3670,38 @@
       <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="68" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="68" t="s">
+      <c r="F2" s="70"/>
+      <c r="G2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63" t="s">
+      <c r="H2" s="64"/>
+      <c r="I2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="68" t="s">
+      <c r="J2" s="70"/>
+      <c r="K2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="63"/>
+      <c r="N2" s="64"/>
     </row>
     <row r="3" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
@@ -3697,26 +3741,26 @@
       <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
       <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -3759,10 +3803,10 @@
         <v>0.38106893052840601</v>
       </c>
       <c r="O5" s="26"/>
-      <c r="P5" s="70"/>
+      <c r="P5" s="53"/>
     </row>
     <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
@@ -3803,10 +3847,10 @@
         <v>1.15793313475917E-2</v>
       </c>
       <c r="O6" s="26"/>
-      <c r="P6" s="70"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="23" t="s">
         <v>10</v>
       </c>
@@ -3847,10 +3891,10 @@
         <v>135</v>
       </c>
       <c r="O7" s="26"/>
-      <c r="P7" s="70"/>
+      <c r="P7" s="53"/>
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="23" t="s">
         <v>11</v>
       </c>
@@ -3891,10 +3935,10 @@
         <v>0.42471750538549602</v>
       </c>
       <c r="O8" s="26"/>
-      <c r="P8" s="70"/>
+      <c r="P8" s="53"/>
     </row>
     <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="23" t="s">
         <v>12</v>
       </c>
@@ -3935,11 +3979,11 @@
         <v>0.39740315206358801</v>
       </c>
       <c r="O9" s="26"/>
-      <c r="P9" s="70"/>
+      <c r="P9" s="53"/>
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
-        <v>217</v>
+      <c r="A10" s="59" t="s">
+        <v>215</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>8</v>
@@ -3981,10 +4025,10 @@
         <v>5.8407805811169999E-2</v>
       </c>
       <c r="O10" s="26"/>
-      <c r="P10" s="70"/>
+      <c r="P10" s="53"/>
     </row>
     <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="23" t="s">
         <v>9</v>
       </c>
@@ -4025,10 +4069,10 @@
         <v>7.9525598884296906E-3</v>
       </c>
       <c r="O11" s="26"/>
-      <c r="P11" s="70"/>
+      <c r="P11" s="53"/>
     </row>
     <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="23" t="s">
         <v>10</v>
       </c>
@@ -4069,10 +4113,10 @@
         <v>5.3799840360692598E-5</v>
       </c>
       <c r="O12" s="26"/>
-      <c r="P12" s="70"/>
+      <c r="P12" s="53"/>
     </row>
     <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="23" t="s">
         <v>11</v>
       </c>
@@ -4113,10 +4157,10 @@
         <v>0.167336762598818</v>
       </c>
       <c r="O13" s="26"/>
-      <c r="P13" s="70"/>
+      <c r="P13" s="53"/>
     </row>
     <row r="14" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -4157,30 +4201,30 @@
         <v>0.159973818673354</v>
       </c>
       <c r="O14" s="26"/>
-      <c r="P14" s="70"/>
+      <c r="P14" s="53"/>
     </row>
     <row r="15" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
       <c r="O15" s="26"/>
-      <c r="P15" s="70"/>
+      <c r="P15" s="53"/>
     </row>
     <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -4223,10 +4267,10 @@
         <v>0.37890405517586201</v>
       </c>
       <c r="O16" s="26"/>
-      <c r="P16" s="70"/>
+      <c r="P16" s="53"/>
     </row>
     <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="23" t="s">
         <v>9</v>
       </c>
@@ -4267,10 +4311,10 @@
         <v>1.3166532350849299E-2</v>
       </c>
       <c r="O17" s="26"/>
-      <c r="P17" s="70"/>
+      <c r="P17" s="53"/>
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="23" t="s">
         <v>10</v>
       </c>
@@ -4311,10 +4355,10 @@
         <v>135</v>
       </c>
       <c r="O18" s="26"/>
-      <c r="P18" s="70"/>
+      <c r="P18" s="53"/>
     </row>
     <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="23" t="s">
         <v>11</v>
       </c>
@@ -4355,10 +4399,10 @@
         <v>0.39340512922514598</v>
       </c>
       <c r="O19" s="26"/>
-      <c r="P19" s="70"/>
+      <c r="P19" s="53"/>
     </row>
     <row r="20" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="23" t="s">
         <v>12</v>
       </c>
@@ -4399,11 +4443,11 @@
         <v>0.35337022863699302</v>
       </c>
       <c r="O20" s="26"/>
-      <c r="P20" s="70"/>
+      <c r="P20" s="53"/>
     </row>
     <row r="21" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="58" t="s">
-        <v>217</v>
+      <c r="A21" s="59" t="s">
+        <v>215</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>8</v>
@@ -4445,10 +4489,10 @@
         <v>0.11913339381211201</v>
       </c>
       <c r="O21" s="26"/>
-      <c r="P21" s="70"/>
+      <c r="P21" s="53"/>
     </row>
     <row r="22" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="23" t="s">
         <v>9</v>
       </c>
@@ -4489,10 +4533,10 @@
         <v>1.1056362777466E-2</v>
       </c>
       <c r="O22" s="26"/>
-      <c r="P22" s="70"/>
+      <c r="P22" s="53"/>
     </row>
     <row r="23" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="23" t="s">
         <v>10</v>
       </c>
@@ -4533,10 +4577,10 @@
         <v>5.8679478272561096E-4</v>
       </c>
       <c r="O23" s="26"/>
-      <c r="P23" s="70"/>
+      <c r="P23" s="53"/>
     </row>
     <row r="24" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="58"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="23" t="s">
         <v>11</v>
       </c>
@@ -4576,10 +4620,10 @@
       <c r="N24" s="8">
         <v>0.102270857663914</v>
       </c>
-      <c r="P24" s="70"/>
+      <c r="P24" s="53"/>
     </row>
     <row r="25" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="24" t="s">
         <v>12</v>
       </c>
@@ -4619,29 +4663,29 @@
       <c r="N25" s="8">
         <v>9.9620575405391196E-2</v>
       </c>
-      <c r="P25" s="70"/>
+      <c r="P25" s="53"/>
     </row>
     <row r="26" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="P26" s="70"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="P26" s="53"/>
     </row>
     <row r="27" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="22" t="s">
@@ -4683,10 +4727,10 @@
       <c r="N27" s="8">
         <v>0.38106893052840601</v>
       </c>
-      <c r="P27" s="70"/>
+      <c r="P27" s="53"/>
     </row>
     <row r="28" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="58"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="23" t="s">
         <v>9</v>
       </c>
@@ -4726,10 +4770,10 @@
       <c r="N28" s="8">
         <v>1.44882589075758E-2</v>
       </c>
-      <c r="P28" s="70"/>
+      <c r="P28" s="53"/>
     </row>
     <row r="29" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="23" t="s">
         <v>10</v>
       </c>
@@ -4769,10 +4813,10 @@
       <c r="N29" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="P29" s="70"/>
+      <c r="P29" s="53"/>
     </row>
     <row r="30" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="58"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="23" t="s">
         <v>11</v>
       </c>
@@ -4812,10 +4856,10 @@
       <c r="N30" s="8">
         <v>0.35601381888108602</v>
       </c>
-      <c r="P30" s="70"/>
+      <c r="P30" s="53"/>
     </row>
     <row r="31" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="58"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="23" t="s">
         <v>12</v>
       </c>
@@ -4855,11 +4899,11 @@
       <c r="N31" s="8">
         <v>0.40157310797477302</v>
       </c>
-      <c r="P31" s="70"/>
+      <c r="P31" s="53"/>
     </row>
     <row r="32" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="58" t="s">
-        <v>217</v>
+      <c r="A32" s="59" t="s">
+        <v>215</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>8</v>
@@ -4900,10 +4944,10 @@
       <c r="N32" s="8">
         <v>5.8407805811169999E-2</v>
       </c>
-      <c r="P32" s="70"/>
+      <c r="P32" s="53"/>
     </row>
     <row r="33" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="58"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="23" t="s">
         <v>9</v>
       </c>
@@ -4943,10 +4987,10 @@
       <c r="N33" s="8">
         <v>7.6306339845722496E-3</v>
       </c>
-      <c r="P33" s="70"/>
+      <c r="P33" s="53"/>
     </row>
     <row r="34" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="58"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="23" t="s">
         <v>10</v>
       </c>
@@ -4986,10 +5030,10 @@
       <c r="N34" s="8">
         <v>5.3799840360692598E-5</v>
       </c>
-      <c r="P34" s="70"/>
+      <c r="P34" s="53"/>
     </row>
     <row r="35" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="58"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="23" t="s">
         <v>11</v>
       </c>
@@ -5029,10 +5073,10 @@
       <c r="N35" s="8">
         <v>0.18536224528602299</v>
       </c>
-      <c r="P35" s="70"/>
+      <c r="P35" s="53"/>
     </row>
     <row r="36" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="24" t="s">
         <v>12</v>
       </c>
@@ -5072,7 +5116,7 @@
       <c r="N36" s="14">
         <v>0.17157671655635501</v>
       </c>
-      <c r="P36" s="70"/>
+      <c r="P36" s="53"/>
     </row>
     <row r="37" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F37" s="5"/>
